--- a/Code/Results/Cases/Case_5_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.48418140164253</v>
+        <v>15.57800190790504</v>
       </c>
       <c r="C2">
-        <v>6.562420854828492</v>
+        <v>8.00005591065424</v>
       </c>
       <c r="D2">
-        <v>5.347606608540813</v>
+        <v>7.940792452307045</v>
       </c>
       <c r="E2">
-        <v>7.84910381445528</v>
+        <v>12.99624494455836</v>
       </c>
       <c r="F2">
-        <v>25.15533989542194</v>
+        <v>38.13641248422856</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.924904950469537</v>
+        <v>10.24051627375567</v>
       </c>
       <c r="K2">
-        <v>10.92435363774975</v>
+        <v>11.68610621854213</v>
       </c>
       <c r="L2">
-        <v>6.654110538779033</v>
+        <v>10.79260582059076</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.73943584853255</v>
+        <v>21.20514023523401</v>
       </c>
       <c r="O2">
-        <v>18.78043649879487</v>
+        <v>29.45693456936715</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.65855063553555</v>
+        <v>15.40309458605463</v>
       </c>
       <c r="C3">
-        <v>6.490183944841059</v>
+        <v>7.979124672058223</v>
       </c>
       <c r="D3">
-        <v>5.177230896308933</v>
+        <v>7.925965987496923</v>
       </c>
       <c r="E3">
-        <v>7.799171584678316</v>
+        <v>13.01381980262528</v>
       </c>
       <c r="F3">
-        <v>24.99426624295299</v>
+        <v>38.21399427253784</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.966265483320181</v>
+        <v>10.260062665813</v>
       </c>
       <c r="K3">
-        <v>10.22695981536104</v>
+        <v>11.55980489088758</v>
       </c>
       <c r="L3">
-        <v>6.530452456220481</v>
+        <v>10.79251960207046</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.9407581738584</v>
+        <v>21.2658948785684</v>
       </c>
       <c r="O3">
-        <v>18.7955334796254</v>
+        <v>29.53561375106047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.13008365114773</v>
+        <v>15.29757681231026</v>
       </c>
       <c r="C4">
-        <v>6.445554288688786</v>
+        <v>7.966175663296478</v>
       </c>
       <c r="D4">
-        <v>5.071613017972388</v>
+        <v>7.917934746495056</v>
       </c>
       <c r="E4">
-        <v>7.771564931970416</v>
+        <v>13.02618630448234</v>
       </c>
       <c r="F4">
-        <v>24.91221772950928</v>
+        <v>38.26871890067806</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.993049778755998</v>
+        <v>10.2728155832853</v>
       </c>
       <c r="K4">
-        <v>9.774189204269783</v>
+        <v>11.48348350119372</v>
       </c>
       <c r="L4">
-        <v>6.455758035332611</v>
+        <v>10.79376169256765</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.06723073252863</v>
+        <v>21.30495113743881</v>
       </c>
       <c r="O4">
-        <v>18.81720060043019</v>
+        <v>29.58887585530297</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.90950936842031</v>
+        <v>15.25509596058929</v>
       </c>
       <c r="C5">
-        <v>6.427304588564291</v>
+        <v>7.960875547451754</v>
       </c>
       <c r="D5">
-        <v>5.02838429275199</v>
+        <v>7.914934082723714</v>
       </c>
       <c r="E5">
-        <v>7.761079149454014</v>
+        <v>13.03162245094344</v>
       </c>
       <c r="F5">
-        <v>24.88293138292912</v>
+        <v>38.29280074596394</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.004312739933046</v>
+        <v>10.27820188468305</v>
       </c>
       <c r="K5">
-        <v>9.583496166208946</v>
+        <v>11.45272296537465</v>
       </c>
       <c r="L5">
-        <v>6.425661491343631</v>
+        <v>10.79459463752374</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.11950888260476</v>
+        <v>21.32130888670463</v>
       </c>
       <c r="O5">
-        <v>18.82904733435011</v>
+        <v>29.6118252015654</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.87257441151969</v>
+        <v>15.24807471192453</v>
       </c>
       <c r="C6">
-        <v>6.42427064672956</v>
+        <v>7.959994093636411</v>
       </c>
       <c r="D6">
-        <v>5.021196777575049</v>
+        <v>7.914452330602828</v>
       </c>
       <c r="E6">
-        <v>7.759384028147267</v>
+        <v>13.03254909328339</v>
       </c>
       <c r="F6">
-        <v>24.8783162761015</v>
+        <v>38.2969070439066</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.006203944544739</v>
+        <v>10.27910772751406</v>
       </c>
       <c r="K6">
-        <v>9.551458065694685</v>
+        <v>11.4476367305256</v>
       </c>
       <c r="L6">
-        <v>6.420685578108201</v>
+        <v>10.79475271581458</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.12823487854711</v>
+        <v>21.32405181245001</v>
       </c>
       <c r="O6">
-        <v>18.8311937780193</v>
+        <v>29.61571106933754</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12712975696023</v>
+        <v>15.29700174021526</v>
       </c>
       <c r="C7">
-        <v>6.44530841205331</v>
+        <v>7.966104276883248</v>
       </c>
       <c r="D7">
-        <v>5.071030695319109</v>
+        <v>7.917893173458085</v>
       </c>
       <c r="E7">
-        <v>7.771420428166445</v>
+        <v>13.02625801136185</v>
       </c>
       <c r="F7">
-        <v>24.91180608616814</v>
+        <v>38.26903646738687</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.993200266665811</v>
+        <v>10.27288745742099</v>
       </c>
       <c r="K7">
-        <v>9.771642500725726</v>
+        <v>11.48306723081732</v>
       </c>
       <c r="L7">
-        <v>6.455350715504939</v>
+        <v>10.7937716013813</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.06793275307358</v>
+        <v>21.30516995239519</v>
       </c>
       <c r="O7">
-        <v>18.81734828542994</v>
+        <v>29.58918031997287</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.20407498798068</v>
+        <v>15.51733279963872</v>
       </c>
       <c r="C8">
-        <v>6.537574731556865</v>
+        <v>7.992859664414878</v>
       </c>
       <c r="D8">
-        <v>5.289107251033049</v>
+        <v>7.935459288181872</v>
       </c>
       <c r="E8">
-        <v>7.831252103197486</v>
+        <v>13.00197809643556</v>
       </c>
       <c r="F8">
-        <v>25.09625335038104</v>
+        <v>38.16169052082187</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.938877137419076</v>
+        <v>10.24710019703286</v>
       </c>
       <c r="K8">
-        <v>10.68898476523531</v>
+        <v>11.6423221195092</v>
       </c>
       <c r="L8">
-        <v>6.611236844072506</v>
+        <v>10.7923080151782</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.80827081396152</v>
+        <v>21.22572544864267</v>
       </c>
       <c r="O8">
-        <v>18.78300852594611</v>
+        <v>29.48303473815549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.13864340057238</v>
+        <v>15.96219757783828</v>
       </c>
       <c r="C9">
-        <v>6.716045878746209</v>
+        <v>8.044507118706548</v>
       </c>
       <c r="D9">
-        <v>5.706177297999833</v>
+        <v>7.978297886676544</v>
       </c>
       <c r="E9">
-        <v>7.97289797542714</v>
+        <v>12.96684177193301</v>
       </c>
       <c r="F9">
-        <v>25.5952387485782</v>
+        <v>38.00749257953449</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.843423726006423</v>
+        <v>10.20247279943892</v>
       </c>
       <c r="K9">
-        <v>12.29362282538849</v>
+        <v>11.96292707200528</v>
       </c>
       <c r="L9">
-        <v>6.925299578577254</v>
+        <v>10.79966095780771</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.32079038966809</v>
+        <v>21.08378191923779</v>
       </c>
       <c r="O9">
-        <v>18.81851607468601</v>
+        <v>29.31421605821443</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.44545641081284</v>
+        <v>16.29401551694193</v>
       </c>
       <c r="C10">
-        <v>6.845331887920496</v>
+        <v>8.081888523913694</v>
       </c>
       <c r="D10">
-        <v>6.00304510857954</v>
+        <v>8.01472155480095</v>
       </c>
       <c r="E10">
-        <v>8.091869209477581</v>
+        <v>12.94859958686866</v>
       </c>
       <c r="F10">
-        <v>26.04990937223001</v>
+        <v>37.92859643713278</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.780132449189615</v>
+        <v>10.17327893401039</v>
       </c>
       <c r="K10">
-        <v>13.35542146866905</v>
+        <v>12.20159610485681</v>
       </c>
       <c r="L10">
-        <v>7.159310504528606</v>
+        <v>10.81122133576604</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.9744386224953</v>
+        <v>20.98785243877107</v>
       </c>
       <c r="O10">
-        <v>18.9134069107955</v>
+        <v>29.21420772065378</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.01427681248657</v>
+        <v>16.44544881833606</v>
       </c>
       <c r="C11">
-        <v>6.903686406461371</v>
+        <v>8.098758029753947</v>
       </c>
       <c r="D11">
-        <v>6.13547293263474</v>
+        <v>8.032327841286458</v>
       </c>
       <c r="E11">
-        <v>8.149228553826852</v>
+        <v>12.94193712707575</v>
       </c>
       <c r="F11">
-        <v>26.27665960822042</v>
+        <v>37.90018083472007</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.752847955374581</v>
+        <v>10.16077232783972</v>
       </c>
       <c r="K11">
-        <v>13.81339046032951</v>
+        <v>12.31043777752737</v>
       </c>
       <c r="L11">
-        <v>7.26611186420614</v>
+        <v>10.81780003650477</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.81909993523147</v>
+        <v>20.94600800697846</v>
       </c>
       <c r="O11">
-        <v>18.97280897814336</v>
+        <v>29.17393582521677</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22594373721517</v>
+        <v>16.5028132167795</v>
       </c>
       <c r="C12">
-        <v>6.925713136652272</v>
+        <v>8.105125354075746</v>
       </c>
       <c r="D12">
-        <v>6.185204420273795</v>
+        <v>8.039140452357763</v>
       </c>
       <c r="E12">
-        <v>8.171413438305667</v>
+        <v>12.93964873636826</v>
       </c>
       <c r="F12">
-        <v>26.36544235004713</v>
+        <v>37.89049548342528</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.742735128771747</v>
+        <v>10.15614722683079</v>
       </c>
       <c r="K12">
-        <v>13.98324247141312</v>
+        <v>12.35165793605704</v>
       </c>
       <c r="L12">
-        <v>7.306576374361068</v>
+        <v>10.82047933528633</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.76056704101447</v>
+        <v>20.93041929946628</v>
       </c>
       <c r="O12">
-        <v>18.9977421994519</v>
+        <v>29.15943743722778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.18052401928893</v>
+        <v>16.49045867286317</v>
       </c>
       <c r="C13">
-        <v>6.920972509964483</v>
+        <v>8.103754982502748</v>
       </c>
       <c r="D13">
-        <v>6.174512933110884</v>
+        <v>8.037666823172014</v>
       </c>
       <c r="E13">
-        <v>8.16661491374624</v>
+        <v>12.94013116301634</v>
       </c>
       <c r="F13">
-        <v>26.34619086147748</v>
+        <v>37.89253358631603</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.744903313846333</v>
+        <v>10.15713839996863</v>
       </c>
       <c r="K13">
-        <v>13.94682009337963</v>
+        <v>12.34278079694473</v>
       </c>
       <c r="L13">
-        <v>7.297861117228914</v>
+        <v>10.81989396323709</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.77316069979245</v>
+        <v>20.93376520047165</v>
       </c>
       <c r="O13">
-        <v>18.99226226422359</v>
+        <v>29.16252648160068</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.03176578247964</v>
+        <v>16.45016810784008</v>
       </c>
       <c r="C14">
-        <v>6.905500005120803</v>
+        <v>8.09928229757981</v>
       </c>
       <c r="D14">
-        <v>6.139572918389615</v>
+        <v>8.032885424310377</v>
       </c>
       <c r="E14">
-        <v>8.151044426230158</v>
+        <v>12.94174416357167</v>
       </c>
       <c r="F14">
-        <v>26.2839050654224</v>
+        <v>37.89936247029572</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.752011558096201</v>
+        <v>10.16038959806534</v>
       </c>
       <c r="K14">
-        <v>13.82743566559728</v>
+        <v>12.31382909740159</v>
       </c>
       <c r="L14">
-        <v>7.269440638708501</v>
+        <v>10.81801670456395</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.81427874632289</v>
+        <v>20.94472037315113</v>
       </c>
       <c r="O14">
-        <v>18.97481077627321</v>
+        <v>29.17272796498211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94015991470789</v>
+        <v>16.42549008805199</v>
       </c>
       <c r="C15">
-        <v>6.896013284588774</v>
+        <v>8.096539902251802</v>
       </c>
       <c r="D15">
-        <v>6.118115883468066</v>
+        <v>8.029975516712899</v>
       </c>
       <c r="E15">
-        <v>8.141567443192686</v>
+        <v>12.94276269471382</v>
       </c>
       <c r="F15">
-        <v>26.24613462223057</v>
+        <v>37.90368535742229</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.756394191470545</v>
+        <v>10.16239547884151</v>
       </c>
       <c r="K15">
-        <v>13.75384519024603</v>
+        <v>12.29609487130356</v>
       </c>
       <c r="L15">
-        <v>7.252034203830641</v>
+        <v>10.81689127181918</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.83950169251128</v>
+        <v>20.95146415071346</v>
       </c>
       <c r="O15">
-        <v>18.9644419326041</v>
+        <v>29.1790745823246</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.4077622593571</v>
+        <v>16.2841244947628</v>
       </c>
       <c r="C16">
-        <v>6.841508623063393</v>
+        <v>8.080783224074947</v>
       </c>
       <c r="D16">
-        <v>5.994334450250957</v>
+        <v>8.013591502972874</v>
       </c>
       <c r="E16">
-        <v>8.088185689708329</v>
+        <v>12.94906785461174</v>
       </c>
       <c r="F16">
-        <v>26.03549619066206</v>
+        <v>37.93060389575074</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.781946087985631</v>
+        <v>10.17411180758335</v>
       </c>
       <c r="K16">
-        <v>13.3249906634045</v>
+        <v>12.19448550423448</v>
       </c>
       <c r="L16">
-        <v>7.15233527771207</v>
+        <v>10.81081781721943</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.98463261318649</v>
+        <v>20.99062307891045</v>
       </c>
       <c r="O16">
-        <v>18.90986049139801</v>
+        <v>29.21694473631469</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.07454570794546</v>
+        <v>16.197490191035</v>
       </c>
       <c r="C17">
-        <v>6.807950677544195</v>
+        <v>8.071081383499752</v>
       </c>
       <c r="D17">
-        <v>5.917698090139685</v>
+        <v>8.003803507023676</v>
       </c>
       <c r="E17">
-        <v>8.056266275631513</v>
+        <v>12.95335439002678</v>
       </c>
       <c r="F17">
-        <v>25.91141754705512</v>
+        <v>37.94903222165441</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.798009026361224</v>
+        <v>10.18149730871435</v>
       </c>
       <c r="K17">
-        <v>13.05550791080697</v>
+        <v>12.13219577694938</v>
       </c>
       <c r="L17">
-        <v>7.091241274941624</v>
+        <v>10.80742880871963</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.0742141753305</v>
+        <v>21.0151045671552</v>
       </c>
       <c r="O17">
-        <v>18.88060947500962</v>
+        <v>29.24151498007375</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.88047494606392</v>
+        <v>16.14770929310227</v>
       </c>
       <c r="C18">
-        <v>6.788606155250679</v>
+        <v>8.065488468056852</v>
       </c>
       <c r="D18">
-        <v>5.873374414884429</v>
+        <v>7.998271542692365</v>
       </c>
       <c r="E18">
-        <v>8.038212051725921</v>
+        <v>12.95597392587012</v>
       </c>
       <c r="F18">
-        <v>25.84192282205829</v>
+        <v>37.96033526843907</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.807389684149705</v>
+        <v>10.18581811357348</v>
       </c>
       <c r="K18">
-        <v>12.89814881871014</v>
+        <v>12.09639582462701</v>
       </c>
       <c r="L18">
-        <v>7.056136053100196</v>
+        <v>10.80560387699677</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.12594973879382</v>
+        <v>21.02935463477075</v>
       </c>
       <c r="O18">
-        <v>18.86530708638684</v>
+        <v>29.25613865344943</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.81435304104165</v>
+        <v>16.1308642723279</v>
       </c>
       <c r="C19">
-        <v>6.782049228372</v>
+        <v>8.063592666060069</v>
       </c>
       <c r="D19">
-        <v>5.858326479153853</v>
+        <v>7.996415425240358</v>
       </c>
       <c r="E19">
-        <v>8.032151621639082</v>
+        <v>12.95688733226648</v>
       </c>
       <c r="F19">
-        <v>25.81871291083227</v>
+        <v>37.96428311201253</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.810590075834407</v>
+        <v>10.18729358977139</v>
       </c>
       <c r="K19">
-        <v>12.84446354912655</v>
+        <v>12.08428035467542</v>
       </c>
       <c r="L19">
-        <v>7.044256856795537</v>
+        <v>10.80500739162369</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.143503526943</v>
+        <v>21.03420851784796</v>
       </c>
       <c r="O19">
-        <v>18.86038417260268</v>
+        <v>29.26117437308656</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.11026733090457</v>
+        <v>16.20670787001573</v>
       </c>
       <c r="C20">
-        <v>6.811527453789331</v>
+        <v>8.072115482092062</v>
       </c>
       <c r="D20">
-        <v>5.925881765161075</v>
+        <v>8.004835356417486</v>
       </c>
       <c r="E20">
-        <v>8.059632597436019</v>
+        <v>12.95288214411783</v>
       </c>
       <c r="F20">
-        <v>25.92443177959832</v>
+        <v>37.94699767655101</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.796284418534085</v>
+        <v>10.18070357166511</v>
       </c>
       <c r="K20">
-        <v>13.08443881845342</v>
+        <v>12.13882403626474</v>
       </c>
       <c r="L20">
-        <v>7.097741488358873</v>
+        <v>10.8077767181404</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.06465646810145</v>
+        <v>21.01248099230391</v>
       </c>
       <c r="O20">
-        <v>18.8835650129934</v>
+        <v>29.23884855970643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.0755612590015</v>
+        <v>16.46200227953029</v>
       </c>
       <c r="C21">
-        <v>6.910046614376652</v>
+        <v>8.100596608312074</v>
       </c>
       <c r="D21">
-        <v>6.149847228588471</v>
+        <v>8.034285918068884</v>
       </c>
       <c r="E21">
-        <v>8.155605274069529</v>
+        <v>12.94126402685412</v>
       </c>
       <c r="F21">
-        <v>26.30212034194737</v>
+        <v>37.89732748616627</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.749917723383602</v>
+        <v>10.15943163628028</v>
       </c>
       <c r="K21">
-        <v>13.86259841742519</v>
+        <v>12.32233307316312</v>
       </c>
       <c r="L21">
-        <v>7.27778806906048</v>
+        <v>10.8185630103411</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.8021937312185</v>
+        <v>20.94149561115327</v>
       </c>
       <c r="O21">
-        <v>18.97986968414141</v>
+        <v>29.16971113562411</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.68466914350961</v>
+        <v>16.62894525478709</v>
       </c>
       <c r="C22">
-        <v>6.97401971151665</v>
+        <v>8.119088868944207</v>
       </c>
       <c r="D22">
-        <v>6.293781768213917</v>
+        <v>8.054379817317093</v>
       </c>
       <c r="E22">
-        <v>8.221033324521834</v>
+        <v>12.93503761807558</v>
       </c>
       <c r="F22">
-        <v>26.5659871018364</v>
+        <v>37.87113101478865</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.720893573148216</v>
+        <v>10.14617530531556</v>
       </c>
       <c r="K22">
-        <v>14.35037315597215</v>
+        <v>12.44227556295379</v>
       </c>
       <c r="L22">
-        <v>7.395570245593943</v>
+        <v>10.82670793672505</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.63233789436838</v>
+        <v>20.89659927037041</v>
       </c>
       <c r="O22">
-        <v>19.05707388896934</v>
+        <v>29.12890761412936</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36157864265714</v>
+        <v>16.53985246662525</v>
       </c>
       <c r="C23">
-        <v>6.939915499451479</v>
+        <v>8.109230781076548</v>
       </c>
       <c r="D23">
-        <v>6.217196172003135</v>
+        <v>8.043579128869554</v>
       </c>
       <c r="E23">
-        <v>8.185866332673404</v>
+        <v>12.93823596520028</v>
       </c>
       <c r="F23">
-        <v>26.42358246303856</v>
+        <v>37.88453927226544</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.736266354193631</v>
+        <v>10.15319146957421</v>
       </c>
       <c r="K23">
-        <v>14.09193056953086</v>
+        <v>12.37827048962737</v>
       </c>
       <c r="L23">
-        <v>7.332706536936838</v>
+        <v>10.82226118864843</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.7228494250358</v>
+        <v>20.92042472306079</v>
       </c>
       <c r="O23">
-        <v>19.01452931258445</v>
+        <v>29.15028407159734</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.09412536899723</v>
+        <v>16.20254047152741</v>
       </c>
       <c r="C24">
-        <v>6.809910553626307</v>
+        <v>8.07164801336595</v>
       </c>
       <c r="D24">
-        <v>5.922182746213347</v>
+        <v>8.004368560243149</v>
       </c>
       <c r="E24">
-        <v>8.058109759163901</v>
+        <v>12.95309516317268</v>
       </c>
       <c r="F24">
-        <v>25.91854231876758</v>
+        <v>37.94791528792341</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.797063659595922</v>
+        <v>10.18106218721662</v>
       </c>
       <c r="K24">
-        <v>13.07136672591918</v>
+        <v>12.13582736255838</v>
       </c>
       <c r="L24">
-        <v>7.094802681920346</v>
+        <v>10.80761904362062</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.06897677676338</v>
+        <v>21.0136665642401</v>
       </c>
       <c r="O24">
-        <v>18.882224105133</v>
+        <v>29.24005249743339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.63504709937772</v>
+        <v>15.84077124276564</v>
       </c>
       <c r="C25">
-        <v>6.668064389981346</v>
+        <v>8.030629455866251</v>
       </c>
       <c r="D25">
-        <v>5.594821974793931</v>
+        <v>7.965826951853358</v>
       </c>
       <c r="E25">
-        <v>7.931963852872241</v>
+        <v>12.97501467847139</v>
       </c>
       <c r="F25">
-        <v>25.44507193884768</v>
+        <v>38.04317100009751</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.868052649300918</v>
+        <v>10.2139125534743</v>
       </c>
       <c r="K25">
-        <v>11.88020529234491</v>
+        <v>11.87550603525677</v>
       </c>
       <c r="L25">
-        <v>6.83963398737535</v>
+        <v>10.79658461531664</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.45048591526498</v>
+        <v>21.12070782624119</v>
       </c>
       <c r="O25">
-        <v>18.79726729618856</v>
+        <v>29.3556702568766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.57800190790504</v>
+        <v>14.48418140164255</v>
       </c>
       <c r="C2">
-        <v>8.00005591065424</v>
+        <v>6.562420854828603</v>
       </c>
       <c r="D2">
-        <v>7.940792452307045</v>
+        <v>5.34760660854074</v>
       </c>
       <c r="E2">
-        <v>12.99624494455836</v>
+        <v>7.849103814455334</v>
       </c>
       <c r="F2">
-        <v>38.13641248422856</v>
+        <v>25.15533989542187</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.24051627375567</v>
+        <v>5.924904950469602</v>
       </c>
       <c r="K2">
-        <v>11.68610621854213</v>
+        <v>10.92435363774975</v>
       </c>
       <c r="L2">
-        <v>10.79260582059076</v>
+        <v>6.654110538779009</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.20514023523401</v>
+        <v>13.73943584853255</v>
       </c>
       <c r="O2">
-        <v>29.45693456936715</v>
+        <v>18.78043649879486</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.40309458605463</v>
+        <v>13.65855063553556</v>
       </c>
       <c r="C3">
-        <v>7.979124672058223</v>
+        <v>6.490183944841184</v>
       </c>
       <c r="D3">
-        <v>7.925965987496923</v>
+        <v>5.177230896308926</v>
       </c>
       <c r="E3">
-        <v>13.01381980262528</v>
+        <v>7.799171584678271</v>
       </c>
       <c r="F3">
-        <v>38.21399427253784</v>
+        <v>24.99426624295306</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.260062665813</v>
+        <v>5.966265483320155</v>
       </c>
       <c r="K3">
-        <v>11.55980489088758</v>
+        <v>10.22695981536103</v>
       </c>
       <c r="L3">
-        <v>10.79251960207046</v>
+        <v>6.530452456220416</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.2658948785684</v>
+        <v>13.94075817385843</v>
       </c>
       <c r="O3">
-        <v>29.53561375106047</v>
+        <v>18.79553347962549</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.29757681231026</v>
+        <v>13.13008365114772</v>
       </c>
       <c r="C4">
-        <v>7.966175663296478</v>
+        <v>6.44555428868866</v>
       </c>
       <c r="D4">
-        <v>7.917934746495056</v>
+        <v>5.071613017972457</v>
       </c>
       <c r="E4">
-        <v>13.02618630448234</v>
+        <v>7.771564931970415</v>
       </c>
       <c r="F4">
-        <v>38.26871890067806</v>
+        <v>24.91221772950936</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.2728155832853</v>
+        <v>5.993049778755966</v>
       </c>
       <c r="K4">
-        <v>11.48348350119372</v>
+        <v>9.774189204269739</v>
       </c>
       <c r="L4">
-        <v>10.79376169256765</v>
+        <v>6.455758035332606</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.30495113743881</v>
+        <v>14.06723073252863</v>
       </c>
       <c r="O4">
-        <v>29.58887585530297</v>
+        <v>18.8172006004302</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.25509596058929</v>
+        <v>12.90950936842028</v>
       </c>
       <c r="C5">
-        <v>7.960875547451754</v>
+        <v>6.427304588564031</v>
       </c>
       <c r="D5">
-        <v>7.914934082723714</v>
+        <v>5.028384292751968</v>
       </c>
       <c r="E5">
-        <v>13.03162245094344</v>
+        <v>7.76107914945397</v>
       </c>
       <c r="F5">
-        <v>38.29280074596394</v>
+        <v>24.88293138292904</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.27820188468305</v>
+        <v>6.00431273993305</v>
       </c>
       <c r="K5">
-        <v>11.45272296537465</v>
+        <v>9.583496166208926</v>
       </c>
       <c r="L5">
-        <v>10.79459463752374</v>
+        <v>6.425661491343661</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.32130888670463</v>
+        <v>14.11950888260468</v>
       </c>
       <c r="O5">
-        <v>29.6118252015654</v>
+        <v>18.82904733435006</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.24807471192453</v>
+        <v>12.87257441151966</v>
       </c>
       <c r="C6">
-        <v>7.959994093636411</v>
+        <v>6.424270646729699</v>
       </c>
       <c r="D6">
-        <v>7.914452330602828</v>
+        <v>5.021196777575031</v>
       </c>
       <c r="E6">
-        <v>13.03254909328339</v>
+        <v>7.75938402814726</v>
       </c>
       <c r="F6">
-        <v>38.2969070439066</v>
+        <v>24.87831627610136</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.27910772751406</v>
+        <v>6.006203944544739</v>
       </c>
       <c r="K6">
-        <v>11.4476367305256</v>
+        <v>9.551458065694733</v>
       </c>
       <c r="L6">
-        <v>10.79475271581458</v>
+        <v>6.420685578108095</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.32405181245001</v>
+        <v>14.12823487854707</v>
       </c>
       <c r="O6">
-        <v>29.61571106933754</v>
+        <v>18.83119377801917</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.29700174021526</v>
+        <v>13.12712975696025</v>
       </c>
       <c r="C7">
-        <v>7.966104276883248</v>
+        <v>6.445308412053688</v>
       </c>
       <c r="D7">
-        <v>7.917893173458085</v>
+        <v>5.07103069531914</v>
       </c>
       <c r="E7">
-        <v>13.02625801136185</v>
+        <v>7.771420428166617</v>
       </c>
       <c r="F7">
-        <v>38.26903646738687</v>
+        <v>24.91180608616811</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.27288745742099</v>
+        <v>5.993200266665907</v>
       </c>
       <c r="K7">
-        <v>11.48306723081732</v>
+        <v>9.771642500725793</v>
       </c>
       <c r="L7">
-        <v>10.7937716013813</v>
+        <v>6.455350715504991</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.30516995239519</v>
+        <v>14.06793275307358</v>
       </c>
       <c r="O7">
-        <v>29.58918031997287</v>
+        <v>18.81734828542987</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.51733279963872</v>
+        <v>14.20407498798068</v>
       </c>
       <c r="C8">
-        <v>7.992859664414878</v>
+        <v>6.537574731556865</v>
       </c>
       <c r="D8">
-        <v>7.935459288181872</v>
+        <v>5.289107251032997</v>
       </c>
       <c r="E8">
-        <v>13.00197809643556</v>
+        <v>7.831252103197436</v>
       </c>
       <c r="F8">
-        <v>38.16169052082187</v>
+        <v>25.09625335038108</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.24710019703286</v>
+        <v>5.938877137419047</v>
       </c>
       <c r="K8">
-        <v>11.6423221195092</v>
+        <v>10.6889847652353</v>
       </c>
       <c r="L8">
-        <v>10.7923080151782</v>
+        <v>6.61123684407246</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.22572544864267</v>
+        <v>13.80827081396152</v>
       </c>
       <c r="O8">
-        <v>29.48303473815549</v>
+        <v>18.78300852594614</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.96219757783828</v>
+        <v>16.13864340057238</v>
       </c>
       <c r="C9">
-        <v>8.044507118706548</v>
+        <v>6.716045878746342</v>
       </c>
       <c r="D9">
-        <v>7.978297886676544</v>
+        <v>5.706177297999881</v>
       </c>
       <c r="E9">
-        <v>12.96684177193301</v>
+        <v>7.972897975427235</v>
       </c>
       <c r="F9">
-        <v>38.00749257953449</v>
+        <v>25.59523874857799</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.20247279943892</v>
+        <v>5.843423726006423</v>
       </c>
       <c r="K9">
-        <v>11.96292707200528</v>
+        <v>12.29362282538852</v>
       </c>
       <c r="L9">
-        <v>10.79966095780771</v>
+        <v>6.9252995785773</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.08378191923779</v>
+        <v>13.32079038966792</v>
       </c>
       <c r="O9">
-        <v>29.31421605821443</v>
+        <v>18.81851607468579</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.29401551694193</v>
+        <v>17.44545641081283</v>
       </c>
       <c r="C10">
-        <v>8.081888523913694</v>
+        <v>6.845331887920877</v>
       </c>
       <c r="D10">
-        <v>8.01472155480095</v>
+        <v>6.003045108579635</v>
       </c>
       <c r="E10">
-        <v>12.94859958686866</v>
+        <v>8.091869209477725</v>
       </c>
       <c r="F10">
-        <v>37.92859643713278</v>
+        <v>26.04990937222995</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.17327893401039</v>
+        <v>5.780132449189649</v>
       </c>
       <c r="K10">
-        <v>12.20159610485681</v>
+        <v>13.35542146866906</v>
       </c>
       <c r="L10">
-        <v>10.81122133576604</v>
+        <v>7.159310504528625</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.98785243877107</v>
+        <v>12.97443862249527</v>
       </c>
       <c r="O10">
-        <v>29.21420772065378</v>
+        <v>18.9134069107954</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.44544881833606</v>
+        <v>18.01427681248655</v>
       </c>
       <c r="C11">
-        <v>8.098758029753947</v>
+        <v>6.903686406461378</v>
       </c>
       <c r="D11">
-        <v>8.032327841286458</v>
+        <v>6.135472932634694</v>
       </c>
       <c r="E11">
-        <v>12.94193712707575</v>
+        <v>8.149228553826852</v>
       </c>
       <c r="F11">
-        <v>37.90018083472007</v>
+        <v>26.27665960822024</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.16077232783972</v>
+        <v>5.752847955374675</v>
       </c>
       <c r="K11">
-        <v>12.31043777752737</v>
+        <v>13.81339046032952</v>
       </c>
       <c r="L11">
-        <v>10.81780003650477</v>
+        <v>7.266111864206179</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.94600800697846</v>
+        <v>12.81909993523144</v>
       </c>
       <c r="O11">
-        <v>29.17393582521677</v>
+        <v>18.97280897814328</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.5028132167795</v>
+        <v>18.22594373721517</v>
       </c>
       <c r="C12">
-        <v>8.105125354075746</v>
+        <v>6.925713136652531</v>
       </c>
       <c r="D12">
-        <v>8.039140452357763</v>
+        <v>6.185204420273705</v>
       </c>
       <c r="E12">
-        <v>12.93964873636826</v>
+        <v>8.171413438305628</v>
       </c>
       <c r="F12">
-        <v>37.89049548342528</v>
+        <v>26.36544235004698</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.15614722683079</v>
+        <v>5.742735128771752</v>
       </c>
       <c r="K12">
-        <v>12.35165793605704</v>
+        <v>13.98324247141315</v>
       </c>
       <c r="L12">
-        <v>10.82047933528633</v>
+        <v>7.306576374361032</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.93041929946628</v>
+        <v>12.76056704101441</v>
       </c>
       <c r="O12">
-        <v>29.15943743722778</v>
+        <v>18.99774219945181</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49045867286317</v>
+        <v>18.18052401928894</v>
       </c>
       <c r="C13">
-        <v>8.103754982502748</v>
+        <v>6.920972509964366</v>
       </c>
       <c r="D13">
-        <v>8.037666823172014</v>
+        <v>6.174512933110892</v>
       </c>
       <c r="E13">
-        <v>12.94013116301634</v>
+        <v>8.166614913746246</v>
       </c>
       <c r="F13">
-        <v>37.89253358631603</v>
+        <v>26.34619086147747</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.15713839996863</v>
+        <v>5.744903313846333</v>
       </c>
       <c r="K13">
-        <v>12.34278079694473</v>
+        <v>13.94682009337961</v>
       </c>
       <c r="L13">
-        <v>10.81989396323709</v>
+        <v>7.297861117228948</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.93376520047165</v>
+        <v>12.77316069979242</v>
       </c>
       <c r="O13">
-        <v>29.16252648160068</v>
+        <v>18.99226226422359</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.45016810784008</v>
+        <v>18.03176578247965</v>
       </c>
       <c r="C14">
-        <v>8.09928229757981</v>
+        <v>6.90550000512092</v>
       </c>
       <c r="D14">
-        <v>8.032885424310377</v>
+        <v>6.1395729183896</v>
       </c>
       <c r="E14">
-        <v>12.94174416357167</v>
+        <v>8.15104442623015</v>
       </c>
       <c r="F14">
-        <v>37.89936247029572</v>
+        <v>26.28390506542247</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.16038959806534</v>
+        <v>5.752011558096201</v>
       </c>
       <c r="K14">
-        <v>12.31382909740159</v>
+        <v>13.82743566559727</v>
       </c>
       <c r="L14">
-        <v>10.81801670456395</v>
+        <v>7.269440638708516</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.94472037315113</v>
+        <v>12.81427874632296</v>
       </c>
       <c r="O14">
-        <v>29.17272796498211</v>
+        <v>18.97481077627327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42549008805199</v>
+        <v>17.94015991470789</v>
       </c>
       <c r="C15">
-        <v>8.096539902251802</v>
+        <v>6.896013284588911</v>
       </c>
       <c r="D15">
-        <v>8.029975516712899</v>
+        <v>6.118115883468159</v>
       </c>
       <c r="E15">
-        <v>12.94276269471382</v>
+        <v>8.141567443192836</v>
       </c>
       <c r="F15">
-        <v>37.90368535742229</v>
+        <v>26.24613462223065</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.16239547884151</v>
+        <v>5.756394191470612</v>
       </c>
       <c r="K15">
-        <v>12.29609487130356</v>
+        <v>13.75384519024604</v>
       </c>
       <c r="L15">
-        <v>10.81689127181918</v>
+        <v>7.252034203830698</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.95146415071346</v>
+        <v>12.83950169251125</v>
       </c>
       <c r="O15">
-        <v>29.1790745823246</v>
+        <v>18.96444193260408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.2841244947628</v>
+        <v>17.40776225935709</v>
       </c>
       <c r="C16">
-        <v>8.080783224074947</v>
+        <v>6.841508623063393</v>
       </c>
       <c r="D16">
-        <v>8.013591502972874</v>
+        <v>5.994334450250878</v>
       </c>
       <c r="E16">
-        <v>12.94906785461174</v>
+        <v>8.088185689708189</v>
       </c>
       <c r="F16">
-        <v>37.93060389575074</v>
+        <v>26.03549619066185</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.17411180758335</v>
+        <v>5.781946087985543</v>
       </c>
       <c r="K16">
-        <v>12.19448550423448</v>
+        <v>13.32499066340454</v>
       </c>
       <c r="L16">
-        <v>10.81081781721943</v>
+        <v>7.152335277711981</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.99062307891045</v>
+        <v>12.98463261318643</v>
       </c>
       <c r="O16">
-        <v>29.21694473631469</v>
+        <v>18.90986049139788</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.197490191035</v>
+        <v>17.07454570794546</v>
       </c>
       <c r="C17">
-        <v>8.071081383499752</v>
+        <v>6.807950677544312</v>
       </c>
       <c r="D17">
-        <v>8.003803507023676</v>
+        <v>5.917698090139685</v>
       </c>
       <c r="E17">
-        <v>12.95335439002678</v>
+        <v>8.056266275631566</v>
       </c>
       <c r="F17">
-        <v>37.94903222165441</v>
+        <v>25.91141754705498</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.18149730871435</v>
+        <v>5.798009026361288</v>
       </c>
       <c r="K17">
-        <v>12.13219577694938</v>
+        <v>13.05550791080704</v>
       </c>
       <c r="L17">
-        <v>10.80742880871963</v>
+        <v>7.091241274941639</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.0151045671552</v>
+        <v>13.0742141753304</v>
       </c>
       <c r="O17">
-        <v>29.24151498007375</v>
+        <v>18.88060947500947</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.14770929310227</v>
+        <v>16.8804749460639</v>
       </c>
       <c r="C18">
-        <v>8.065488468056852</v>
+        <v>6.788606155250558</v>
       </c>
       <c r="D18">
-        <v>7.998271542692365</v>
+        <v>5.873374414884373</v>
       </c>
       <c r="E18">
-        <v>12.95597392587012</v>
+        <v>8.038212051725877</v>
       </c>
       <c r="F18">
-        <v>37.96033526843907</v>
+        <v>25.84192282205808</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.18581811357348</v>
+        <v>5.807389684149706</v>
       </c>
       <c r="K18">
-        <v>12.09639582462701</v>
+        <v>12.89814881871017</v>
       </c>
       <c r="L18">
-        <v>10.80560387699677</v>
+        <v>7.056136053100212</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.02935463477075</v>
+        <v>13.12594973879372</v>
       </c>
       <c r="O18">
-        <v>29.25613865344943</v>
+        <v>18.86530708638669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.1308642723279</v>
+        <v>16.81435304104163</v>
       </c>
       <c r="C19">
-        <v>8.063592666060069</v>
+        <v>6.782049228371885</v>
       </c>
       <c r="D19">
-        <v>7.996415425240358</v>
+        <v>5.858326479153869</v>
       </c>
       <c r="E19">
-        <v>12.95688733226648</v>
+        <v>8.032151621639086</v>
       </c>
       <c r="F19">
-        <v>37.96428311201253</v>
+        <v>25.81871291083227</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.18729358977139</v>
+        <v>5.810590075834376</v>
       </c>
       <c r="K19">
-        <v>12.08428035467542</v>
+        <v>12.84446354912655</v>
       </c>
       <c r="L19">
-        <v>10.80500739162369</v>
+        <v>7.044256856795555</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.03420851784796</v>
+        <v>13.143503526943</v>
       </c>
       <c r="O19">
-        <v>29.26117437308656</v>
+        <v>18.86038417260268</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.20670787001573</v>
+        <v>17.1102673309046</v>
       </c>
       <c r="C20">
-        <v>8.072115482092062</v>
+        <v>6.811527453789214</v>
       </c>
       <c r="D20">
-        <v>8.004835356417486</v>
+        <v>5.925881765161032</v>
       </c>
       <c r="E20">
-        <v>12.95288214411783</v>
+        <v>8.059632597436002</v>
       </c>
       <c r="F20">
-        <v>37.94699767655101</v>
+        <v>25.92443177959839</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.18070357166511</v>
+        <v>5.796284418534139</v>
       </c>
       <c r="K20">
-        <v>12.13882403626474</v>
+        <v>13.08443881845339</v>
       </c>
       <c r="L20">
-        <v>10.8077767181404</v>
+        <v>7.097741488358868</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.01248099230391</v>
+        <v>13.06465646810149</v>
       </c>
       <c r="O20">
-        <v>29.23884855970643</v>
+        <v>18.88356501299352</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.46200227953029</v>
+        <v>18.07556125900153</v>
       </c>
       <c r="C21">
-        <v>8.100596608312074</v>
+        <v>6.910046614376769</v>
       </c>
       <c r="D21">
-        <v>8.034285918068884</v>
+        <v>6.1498472285885</v>
       </c>
       <c r="E21">
-        <v>12.94126402685412</v>
+        <v>8.155605274069531</v>
       </c>
       <c r="F21">
-        <v>37.89732748616627</v>
+        <v>26.30212034194713</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.15943163628028</v>
+        <v>5.749917723383575</v>
       </c>
       <c r="K21">
-        <v>12.32233307316312</v>
+        <v>13.86259841742527</v>
       </c>
       <c r="L21">
-        <v>10.8185630103411</v>
+        <v>7.277788069060477</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.94149561115327</v>
+        <v>12.80219373121833</v>
       </c>
       <c r="O21">
-        <v>29.16971113562411</v>
+        <v>18.9798696841412</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.62894525478709</v>
+        <v>18.68466914350961</v>
       </c>
       <c r="C22">
-        <v>8.119088868944207</v>
+        <v>6.97401971151665</v>
       </c>
       <c r="D22">
-        <v>8.054379817317093</v>
+        <v>6.293781768213851</v>
       </c>
       <c r="E22">
-        <v>12.93503761807558</v>
+        <v>8.221033324521796</v>
       </c>
       <c r="F22">
-        <v>37.87113101478865</v>
+        <v>26.56598710183636</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.14617530531556</v>
+        <v>5.720893573148218</v>
       </c>
       <c r="K22">
-        <v>12.44227556295379</v>
+        <v>14.35037315597215</v>
       </c>
       <c r="L22">
-        <v>10.82670793672505</v>
+        <v>7.395570245593936</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.89659927037041</v>
+        <v>12.63233789436838</v>
       </c>
       <c r="O22">
-        <v>29.12890761412936</v>
+        <v>19.05707388896936</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.53985246662525</v>
+        <v>18.36157864265712</v>
       </c>
       <c r="C23">
-        <v>8.109230781076548</v>
+        <v>6.939915499451612</v>
       </c>
       <c r="D23">
-        <v>8.043579128869554</v>
+        <v>6.217196172003282</v>
       </c>
       <c r="E23">
-        <v>12.93823596520028</v>
+        <v>8.185866332673449</v>
       </c>
       <c r="F23">
-        <v>37.88453927226544</v>
+        <v>26.42358246303845</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.15319146957421</v>
+        <v>5.736266354193539</v>
       </c>
       <c r="K23">
-        <v>12.37827048962737</v>
+        <v>14.0919305695309</v>
       </c>
       <c r="L23">
-        <v>10.82226118864843</v>
+        <v>7.332706536936838</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.92042472306079</v>
+        <v>12.72284942503567</v>
       </c>
       <c r="O23">
-        <v>29.15028407159734</v>
+        <v>19.01452931258428</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.20254047152741</v>
+        <v>17.09412536899726</v>
       </c>
       <c r="C24">
-        <v>8.07164801336595</v>
+        <v>6.809910553626293</v>
       </c>
       <c r="D24">
-        <v>8.004368560243149</v>
+        <v>5.922182746213413</v>
       </c>
       <c r="E24">
-        <v>12.95309516317268</v>
+        <v>8.058109759163903</v>
       </c>
       <c r="F24">
-        <v>37.94791528792341</v>
+        <v>25.91854231876767</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.18106218721662</v>
+        <v>5.79706365959589</v>
       </c>
       <c r="K24">
-        <v>12.13582736255838</v>
+        <v>13.07136672591915</v>
       </c>
       <c r="L24">
-        <v>10.80761904362062</v>
+        <v>7.094802681920338</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.0136665642401</v>
+        <v>13.06897677676338</v>
       </c>
       <c r="O24">
-        <v>29.24005249743339</v>
+        <v>18.88222410513305</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84077124276564</v>
+        <v>15.63504709937774</v>
       </c>
       <c r="C25">
-        <v>8.030629455866251</v>
+        <v>6.668064389981339</v>
       </c>
       <c r="D25">
-        <v>7.965826951853358</v>
+        <v>5.594821974793962</v>
       </c>
       <c r="E25">
-        <v>12.97501467847139</v>
+        <v>7.931963852872233</v>
       </c>
       <c r="F25">
-        <v>38.04317100009751</v>
+        <v>25.44507193884776</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.2139125534743</v>
+        <v>5.868052649300919</v>
       </c>
       <c r="K25">
-        <v>11.87550603525677</v>
+        <v>11.88020529234492</v>
       </c>
       <c r="L25">
-        <v>10.79658461531664</v>
+        <v>6.839633987375347</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.12070782624119</v>
+        <v>13.45048591526505</v>
       </c>
       <c r="O25">
-        <v>29.3556702568766</v>
+        <v>18.79726729618864</v>
       </c>
     </row>
   </sheetData>
